--- a/UniData/ClassData.xlsx
+++ b/UniData/ClassData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc0505c6d357893e/Desktop/Universal Storage Unit/Code/Godot 4 Projects/Registraren't/StudentData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc0505c6d357893e/Desktop/Universal Storage Unit/Code/Godot 4 Projects/Registraren't/UniData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="11_F25DC773A252ABDACC104816B9DF49C85ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F60EB4DA-EEE5-475A-9E5E-54EC0EC829E6}"/>
+  <xr:revisionPtr revIDLastSave="678" documentId="11_F25DC773A252ABDACC104816B9DF49C85ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AF37386-050F-48A7-8741-49DE6396A513}"/>
   <bookViews>
-    <workbookView xWindow="30195" yWindow="3900" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="101">
   <si>
     <t>ClassName</t>
   </si>
@@ -36,9 +36,6 @@
     <t>CS 101</t>
   </si>
   <si>
-    <t>ESB 001</t>
-  </si>
-  <si>
     <t>EN 133</t>
   </si>
   <si>
@@ -54,42 +51,21 @@
     <t>English</t>
   </si>
   <si>
-    <t>ClassTimeMonday</t>
-  </si>
-  <si>
     <t>ClassDuration</t>
   </si>
   <si>
-    <t>ClassTimeTuesday</t>
-  </si>
-  <si>
-    <t>ClassTimeWednesday</t>
-  </si>
-  <si>
-    <t>ClassTimeThursday</t>
-  </si>
-  <si>
-    <t>ClassTimeFriday</t>
-  </si>
-  <si>
     <t>POLS 201</t>
   </si>
   <si>
     <t>Humanities</t>
   </si>
   <si>
-    <t>LH12</t>
-  </si>
-  <si>
     <t>AHIS 203</t>
   </si>
   <si>
     <t>History</t>
   </si>
   <si>
-    <t>LH02</t>
-  </si>
-  <si>
     <t>ART 222</t>
   </si>
   <si>
@@ -106,12 +82,261 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>ART 101</t>
+  </si>
+  <si>
+    <t>ART 201</t>
+  </si>
+  <si>
+    <t>ARB 311</t>
+  </si>
+  <si>
+    <t>ART 115</t>
+  </si>
+  <si>
+    <t>ART 177</t>
+  </si>
+  <si>
+    <t>ARB 201</t>
+  </si>
+  <si>
+    <t>CS 202</t>
+  </si>
+  <si>
+    <t>CS 112</t>
+  </si>
+  <si>
+    <t>CS 213</t>
+  </si>
+  <si>
+    <t>CS 213D</t>
+  </si>
+  <si>
+    <t>CS 112D</t>
+  </si>
+  <si>
+    <t>CS 405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART 320 </t>
+  </si>
+  <si>
+    <t>ART 441</t>
+  </si>
+  <si>
+    <t>EN 168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN 204 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN 211 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN 218 </t>
+  </si>
+  <si>
+    <t>POLS 225</t>
+  </si>
+  <si>
+    <t>POLS 111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLS 308 </t>
+  </si>
+  <si>
+    <t>POLS 416</t>
+  </si>
+  <si>
+    <t>AHIS 110A</t>
+  </si>
+  <si>
+    <t>AHIS 110B</t>
+  </si>
+  <si>
+    <t>AHIS 214</t>
+  </si>
+  <si>
+    <t>AHIS 255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHIS 333 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHIS 319 </t>
+  </si>
+  <si>
+    <t>HUM 123</t>
+  </si>
+  <si>
+    <t>HUM 201</t>
+  </si>
+  <si>
+    <t>HUM 322</t>
+  </si>
+  <si>
+    <t>HUM 114</t>
+  </si>
+  <si>
+    <t>HUM 320</t>
+  </si>
+  <si>
+    <t>HUM 213</t>
+  </si>
+  <si>
+    <t>LH 06</t>
+  </si>
+  <si>
+    <t>LH 19</t>
+  </si>
+  <si>
+    <t>LH 02</t>
+  </si>
+  <si>
+    <t>LH 21</t>
+  </si>
+  <si>
+    <t>ARB 130</t>
+  </si>
+  <si>
+    <t>ARB B02</t>
+  </si>
+  <si>
+    <t>ESB B11</t>
+  </si>
+  <si>
+    <t>HUM B04</t>
+  </si>
+  <si>
+    <t>LH 12</t>
+  </si>
+  <si>
+    <t>ENB B19</t>
+  </si>
+  <si>
+    <t>ARB B07</t>
+  </si>
+  <si>
+    <t>HUM B02</t>
+  </si>
+  <si>
+    <t>ClassStartTimeMonday</t>
+  </si>
+  <si>
+    <t>ClassEndTimeMonday</t>
+  </si>
+  <si>
+    <t>ClassEndTimeTuesday</t>
+  </si>
+  <si>
+    <t>ClassStartTimeTuesday</t>
+  </si>
+  <si>
+    <t>ClassStartTimeWednesday</t>
+  </si>
+  <si>
+    <t>ClassEndTimeWednesday</t>
+  </si>
+  <si>
+    <t>ClassStartTimeThursday</t>
+  </si>
+  <si>
+    <t>ClassEndTimeThursday</t>
+  </si>
+  <si>
+    <t>ClassStartTimeFriday</t>
+  </si>
+  <si>
+    <t>ClassEndTimeFriday</t>
+  </si>
+  <si>
+    <t>HUM B19</t>
+  </si>
+  <si>
+    <t>ARB B01</t>
+  </si>
+  <si>
+    <t>ENB 101</t>
+  </si>
+  <si>
+    <t>ENB 109</t>
+  </si>
+  <si>
+    <t>LH 08</t>
+  </si>
+  <si>
+    <t>ENB 128</t>
+  </si>
+  <si>
+    <t>MAT 206</t>
+  </si>
+  <si>
+    <t>MAT 218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAT 236 </t>
+  </si>
+  <si>
+    <t>MAT 400</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>MAB 201</t>
+  </si>
+  <si>
+    <t>MAB 117</t>
+  </si>
+  <si>
+    <t>MAB 114</t>
+  </si>
+  <si>
+    <t>MAT 220</t>
+  </si>
+  <si>
+    <t>MAB 119</t>
+  </si>
+  <si>
+    <t>CS 304</t>
+  </si>
+  <si>
+    <t>CS 312</t>
+  </si>
+  <si>
+    <t>CS 318</t>
+  </si>
+  <si>
+    <t>ESB 101</t>
+  </si>
+  <si>
+    <t>ENB 202</t>
+  </si>
+  <si>
+    <t>HUM 122</t>
+  </si>
+  <si>
+    <t>MAT 337</t>
+  </si>
+  <si>
+    <t>MAT 359</t>
+  </si>
+  <si>
+    <t>MAB 214</t>
+  </si>
+  <si>
+    <t>MAB 215</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,10 +366,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -160,6 +386,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,196 +655,2138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2">
+        <v>90</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3">
+        <v>90</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4">
+        <v>90</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5">
+        <v>90</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>90</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7">
+        <v>90</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8">
+        <v>90</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9">
+        <v>120</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>90</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0.59375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <v>90</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>120</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>120</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14">
+        <v>120</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15">
+        <v>120</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16">
+        <v>90</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17">
+        <v>90</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18">
+        <v>45</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0.57291666666666663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19">
+        <v>90</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20">
+        <v>90</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21">
+        <v>45</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22">
+        <v>90</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0.59375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23">
+        <v>90</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24">
+        <v>90</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25">
+        <v>90</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>60</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27">
+        <v>60</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28">
+        <v>60</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29">
+        <v>60</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30">
+        <v>60</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31">
+        <v>90</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32">
+        <v>90</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33">
+        <v>90</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34">
+        <v>90</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35">
+        <v>90</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0.51041666666666663</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36">
+        <v>90</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37">
+        <v>120</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38">
+        <v>90</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="P38" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>90</v>
-      </c>
-      <c r="G2">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>8</v>
-      </c>
-      <c r="K2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>60</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.38541666666666669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4">
-        <v>90</v>
-      </c>
-      <c r="H4">
-        <v>9</v>
-      </c>
-      <c r="K4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>90</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6">
-        <v>120</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.4375</v>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39">
+        <v>90</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="P39" s="3">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40">
+        <v>90</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="P40" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41">
+        <v>90</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42">
+        <v>90</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0.60416666666666663</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P42">
+    <sortCondition ref="A2:A42"/>
+    <sortCondition ref="B2:B42"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>